--- a/academycity/data/training/datasets/excel/battalion_2/112_1_correction.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/112_1_correction.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$AG$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$AH$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t xml:space="preserve">dshn</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">professional_qualified</t>
   </si>
   <si>
     <r>
@@ -192,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -275,6 +278,13 @@
       <family val="2"/>
       <charset val="177"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -355,7 +365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -425,6 +435,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,10 +523,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI1048576"/>
+  <dimension ref="A1:AJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,30 +538,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="54.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="19.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="28" style="1" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="16.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="36" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="29" style="1" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="37" style="1" width="12.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -575,43 +588,43 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="6" t="s">
@@ -620,7 +633,7 @@
       <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="11" t="s">
@@ -629,10 +642,10 @@
       <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="12" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="11" t="s">
@@ -655,6 +668,9 @@
       </c>
       <c r="AI1" s="11" t="s">
         <v>34</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -665,7 +681,7 @@
         <v>149</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="14" t="n">
         <v>1</v>
@@ -674,38 +690,38 @@
         <v>4</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="14" t="n">
+      <c r="I2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="n">
         <v>43</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>39</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="6" t="n">
+      <c r="M2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="15" t="n">
         <v>1</v>
       </c>
       <c r="O2" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" s="6" t="n">
         <v>3</v>
       </c>
       <c r="Q2" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" s="6" t="n">
         <v>1</v>
@@ -725,30 +741,30 @@
       <c r="W2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="16" t="n">
+      <c r="X2" s="6" t="n">
         <v>1</v>
       </c>
       <c r="Y2" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="Z2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="16" t="n">
+      <c r="AA2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AB2" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AD2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="AE2" s="11" t="n">
-        <v>1</v>
-      </c>
       <c r="AF2" s="11" t="n">
         <v>1</v>
       </c>
@@ -756,9 +772,12 @@
         <v>1</v>
       </c>
       <c r="AH2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -770,7 +789,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="17" t="n">
         <v>2</v>
@@ -779,38 +798,38 @@
         <v>1</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="17" t="n">
+      <c r="I3" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="L3" s="17" t="n">
         <v>1807220731</v>
       </c>
-      <c r="L3" s="17" t="n">
+      <c r="M3" s="17" t="n">
         <v>1230756</v>
       </c>
-      <c r="M3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="O3" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" s="6" t="n">
         <v>3</v>
       </c>
       <c r="Q3" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="6" t="n">
         <v>1</v>
@@ -830,30 +849,30 @@
       <c r="W3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="X3" s="16" t="n">
+      <c r="X3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="Y3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="Z3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="16" t="n">
+      <c r="AA3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AB3" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AD3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="AE3" s="11" t="n">
-        <v>1</v>
-      </c>
       <c r="AF3" s="11" t="n">
         <v>1</v>
       </c>
@@ -861,9 +880,12 @@
         <v>1</v>
       </c>
       <c r="AH3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AJ3" s="11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -875,7 +897,7 @@
         <v>173</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="17" t="n">
         <v>2</v>
@@ -884,38 +906,38 @@
         <v>4</v>
       </c>
       <c r="F4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="17" t="n">
         <v>45</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="17" t="n">
-        <v>45</v>
-      </c>
-      <c r="K4" s="17" t="n">
+      <c r="L4" s="17" t="n">
         <v>1807220749</v>
       </c>
-      <c r="L4" s="17" t="n">
+      <c r="M4" s="17" t="n">
         <v>1230155</v>
       </c>
-      <c r="M4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" s="6" t="n">
         <v>1</v>
@@ -935,30 +957,30 @@
       <c r="W4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="X4" s="16" t="n">
+      <c r="X4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="Y4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="Z4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="16" t="n">
+      <c r="AA4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="AB4" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AD4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="AE4" s="11" t="n">
-        <v>1</v>
-      </c>
       <c r="AF4" s="11" t="n">
         <v>1</v>
       </c>
@@ -966,9 +988,12 @@
         <v>1</v>
       </c>
       <c r="AH4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AJ4" s="11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1527,7 +1552,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AG4">
+  <autoFilter ref="A1:AH4">
     <filterColumn colId="2">
       <customFilters and="true">
         <customFilter operator="equal" val="ZULU"/>
@@ -1547,7 +1572,7 @@
     <oddFooter/>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="17" man="true" max="65535" min="0"/>
+    <brk id="18" man="true" max="65535" min="0"/>
   </colBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
